--- a/Data/statistik.xlsx
+++ b/Data/statistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faris Rizki Ekananda\Documents\ITB\Kuliah\TA\ta-s1-itb\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118B1B26-88A8-41FE-8ACB-4E4AF29CE60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D09C0F-013D-46E7-AB08-B6D265AE1A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{D298AF61-0641-43C3-A5E6-21028127C37D}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="39">
   <si>
     <t>Paham</t>
   </si>
@@ -141,6 +140,18 @@
   <si>
     <t>Confidence Level(95.0%)</t>
   </si>
+  <si>
+    <t>Modul 1 Kuis</t>
+  </si>
+  <si>
+    <t>Modul 1 Kuis tapi belom pernah semua</t>
+  </si>
+  <si>
+    <t>Modul 2 Kuis</t>
+  </si>
+  <si>
+    <t>Modul 2 Kuis Awam</t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -250,11 +261,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -271,6 +312,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1121,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F9BDD5-02F5-4A25-AD93-79C164FE6DCF}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:O65"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2922,7 +2969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="12:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L65" s="4" t="s">
         <v>34</v>
       </c>
@@ -2934,6 +2981,1465 @@
       </c>
       <c r="O65" s="4">
         <v>1.1105780420791178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O71" s="5"/>
+    </row>
+    <row r="72" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="8">
+        <v>1</v>
+      </c>
+      <c r="B72" s="9">
+        <v>1</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="8">
+        <v>1</v>
+      </c>
+      <c r="B73" s="9">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="8">
+        <v>1</v>
+      </c>
+      <c r="B74" s="9">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M74" s="3">
+        <v>9.6498024264068172E-2</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O74" s="3">
+        <v>4.9999999999999954E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="8">
+        <v>1</v>
+      </c>
+      <c r="B75" s="9">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.11174242424242427</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2.499999999999996E-2</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M75" s="3">
+        <v>1</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="8">
+        <v>1</v>
+      </c>
+      <c r="B76" s="9">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="3">
+        <v>12</v>
+      </c>
+      <c r="F76" s="3">
+        <v>10</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B77" s="9">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="3">
+        <v>7.2708333333333333E-2</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="L77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0.33427896171076077</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0.15811388300841883</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="8">
+        <v>1</v>
+      </c>
+      <c r="B78" s="9">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="L78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0.11174242424242427</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O78" s="3">
+        <v>2.499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="8">
+        <v>1</v>
+      </c>
+      <c r="B79" s="9">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="3">
+        <v>20</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="L79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M79" s="3">
+        <v>1.3878770468256265</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O79" s="3">
+        <v>9.9999999999999929</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B80" s="9">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="3">
+        <v>-1.371385466768239</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="L80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M80" s="3">
+        <v>-1.4551938161965483</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O80" s="3">
+        <v>-3.1622776601683782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B81" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9.2723233285533682E-2</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="L81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="9">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1.7247182429207868</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="L82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="9">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.18544646657106736</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="L83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="3">
+        <v>1</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D84" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2.0859634472658648</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="L84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M84" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O84" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" s="3">
+        <v>12</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O85" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M86" s="4">
+        <v>0.21239071938337689</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O86" s="4">
+        <v>0.11310785813991014</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O90" s="5"/>
+    </row>
+    <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="8">
+        <v>1</v>
+      </c>
+      <c r="B91" s="9">
+        <v>1</v>
+      </c>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="8">
+        <v>1</v>
+      </c>
+      <c r="B92" s="9">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B93" s="9">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B94" s="9">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B95" s="9">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="3">
+        <v>7</v>
+      </c>
+      <c r="F95" s="3">
+        <v>7</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M95" s="3">
+        <v>1</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="8">
+        <v>0</v>
+      </c>
+      <c r="B96" s="9">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="3">
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="L96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0.37796447300922725</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="8">
+        <v>1</v>
+      </c>
+      <c r="B97" s="9">
+        <v>1</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="L97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D98" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="3">
+        <v>12</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="L98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M98" s="3">
+        <v>-0.35000000000000142</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O98" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="3">
+        <v>-2.4999999999999991</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="L99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M99" s="3">
+        <v>-0.59529404498953331</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O99" s="3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1.3957699785662624E-2</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="L100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" s="3">
+        <v>1</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1.7822875556493194</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="L101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D102" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2.7915399571325248E-2</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="3">
+        <v>1</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D103" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="4">
+        <v>2.1788128296672284</v>
+      </c>
+      <c r="F103" s="4"/>
+      <c r="L103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M103" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O103" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M104" s="3">
+        <v>7</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O104" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M105" s="4">
+        <v>0.34955883587785269</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O110" s="5"/>
+    </row>
+    <row r="111" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B111" s="9">
+        <v>1</v>
+      </c>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+    </row>
+    <row r="112" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B112" s="9">
+        <v>1</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M112" s="3">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O112" s="3">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="8">
+        <v>1</v>
+      </c>
+      <c r="B113" s="9">
+        <v>0</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M113" s="3">
+        <v>0.10562681853292956</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O113" s="3">
+        <v>0.14869042853329517</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="8">
+        <v>1</v>
+      </c>
+      <c r="B114" s="9">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.12272727272727271</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0.15476190476190474</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M114" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="8">
+        <v>1</v>
+      </c>
+      <c r="B115" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="3">
+        <v>11</v>
+      </c>
+      <c r="F115" s="3">
+        <v>7</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M115" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B116" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.13474025974025972</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="L116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M116" s="3">
+        <v>0.35032452487268534</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O116" s="3">
+        <v>0.39339789623472154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B117" s="9">
+        <v>1</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="L117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M117" s="3">
+        <v>0.12272727272727271</v>
+      </c>
+      <c r="N117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O117" s="3">
+        <v>0.15476190476190474</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="8">
+        <v>0</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="3">
+        <v>16</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="L118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M118" s="3">
+        <v>-0.45267489711934283</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O118" s="3">
+        <v>0.27337278106509189</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="3">
+        <v>-0.95129025324398342</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="L119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M119" s="3">
+        <v>-0.1233424253095413</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O119" s="3">
+        <v>-1.1145497793916261</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0.1778036556576128</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="L120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M120" s="3">
+        <v>1</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="9">
+        <v>0</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1.7458836762762506</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="L121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M121" s="3">
+        <v>0</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D122" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.3556073113152256</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="L122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M122" s="3">
+        <v>1</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D123" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="4">
+        <v>2.119905299221255</v>
+      </c>
+      <c r="F123" s="4"/>
+      <c r="L123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M123" s="3">
+        <v>6</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O123" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M124" s="3">
+        <v>11</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O124" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L125" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M125" s="4">
+        <v>0.23535121818492419</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O125" s="4">
+        <v>0.36383237172994398</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O130" s="5"/>
+    </row>
+    <row r="131" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B131" s="6">
+        <v>1</v>
+      </c>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+    </row>
+    <row r="132" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="8">
+        <v>1</v>
+      </c>
+      <c r="B132" s="7">
+        <v>1</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M132" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O132" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B133" s="7">
+        <v>0</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M133" s="3">
+        <v>0.12909944487358058</v>
+      </c>
+      <c r="N133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O133" s="3">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B134" s="7">
+        <v>1</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M134" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B135" s="7">
+        <v>1</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135" s="3">
+        <v>6</v>
+      </c>
+      <c r="F135" s="3">
+        <v>5</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M135" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="8">
+        <v>0</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.14444444444444443</v>
+      </c>
+      <c r="F136" s="3"/>
+      <c r="L136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M136" s="3">
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O136" s="3">
+        <v>0.44721359549995787</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D137" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="L137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M137" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O137" s="3">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D138" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="3">
+        <v>9</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="L138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M138" s="3">
+        <v>2.4999999999999964</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O138" s="3">
+        <v>5.0000000000000036</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D139" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" s="3">
+        <v>-1.3035722838802226</v>
+      </c>
+      <c r="F139" s="3"/>
+      <c r="L139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M139" s="3">
+        <v>0</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O139" s="3">
+        <v>-2.2360679774997911</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D140" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.11236813065703177</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="L140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M140" s="3">
+        <v>1</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D141" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="L141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M141" s="3">
+        <v>0</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D142" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0.22473626131406355</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="L142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M142" s="3">
+        <v>1</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D143" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="4">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="L143" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M143" s="3">
+        <v>3</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O143" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M144" s="3">
+        <v>6</v>
+      </c>
+      <c r="N144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O144" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="12:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L145" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M145" s="4">
+        <v>0.33186068798275803</v>
+      </c>
+      <c r="N145" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O145" s="4">
+        <v>0.55528902103955846</v>
       </c>
     </row>
   </sheetData>
